--- a/biology/Zoologie/Bécassin_roux/Bécassin_roux.xlsx
+++ b/biology/Zoologie/Bécassin_roux/Bécassin_roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9cassin_roux</t>
+          <t>Bécassin_roux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Limnodromus griseus
 Le Bécassin roux (Limnodromus griseus), également appelé bécassin siffleur ou limnodrome à bec court, est une espèce d'oiseaux limicoles de la famille des Scolopacidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9cassin_roux</t>
+          <t>Bécassin_roux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corps de l'adulte est brun foncé sur le dessus et roux en dessous. La queue est rayée noir et blanc. Les jambes sont jaunes. D'après Alan P. Peterson, cette espèce est constituée de trois sous-espèces qui ont des légères variations dans l'apparence :
 L. G. griseus (Gmelin) 1789 avec le ventre blanc et les flancs rayés : Québec et Labrador
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9cassin_roux</t>
+          <t>Bécassin_roux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Cri</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son cri est plus doux que celui du Bécassin au long bec ce qui est utile dans l'identification, en particulier lorsque la différenciation des plumages adultes est difficile.
 </t>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9cassin_roux</t>
+          <t>Bécassin_roux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit dans l'eau peu profonde ou dans la boue humide. Il mange principalement insectes, mollusques, crustacés et vers marins, mais aussi un peu de matériel végétal.
 </t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B%C3%A9cassin_roux</t>
+          <t>Bécassin_roux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche sur le sol, habituellement près de l'eau. Le nid est une dépression peu profonde dans les touffes d'herbes ou la mousse, qui est bordée de fines herbes, de brindilles et de feuilles. La femelle y pond quatre, parfois trois, œufs bruns tachés d'olive. L'incubation dure 21 jours et est assurée par les deux sexes.
 Les jeunes quittent le nid peu après l'éclosion. Le rôle des parents n'est pas bien connu mais on pense que la femelle part et laisse le mâle s'occuper des poussins qui trouvent seuls leur propre nourriture.
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B%C3%A9cassin_roux</t>
+          <t>Bécassin_roux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +663,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bécassin roux vit de manière disparate au Canada et en Alaska ; il hiverne le long des côtes tropicales d'Amérique.
 Son habitat de reproduction inclut tourbières, marais littoraux, vasières ou clairières de forêts.
